--- a/Python cheet sheet.xlsx
+++ b/Python cheet sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a955fc45c1aa0037/Documentos/Hacker Rank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8D813B-43F7-4421-9E2E-2638DF9A04CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aritmetical" sheetId="1" r:id="rId1"/>
+    <sheet name="Operators" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
     <sheet name="Estructuras de control" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>range</t>
   </si>
@@ -57,14 +57,98 @@
   </si>
   <si>
     <t>is used to convert the string to a number</t>
+  </si>
+  <si>
+    <t>"""
+"""</t>
+  </si>
+  <si>
+    <t>Multiline comments</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>"+"</t>
+  </si>
+  <si>
+    <t>Arithmetic Operators</t>
+  </si>
+  <si>
+    <t>Multiplicacion</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Quotient</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Remainder</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Exponentiation</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Add ' inside strings</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>Add new line in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:= </t>
+  </si>
+  <si>
+    <t>Walrus operator</t>
+  </si>
+  <si>
+    <t>allows you to assign values to variables within an expression, including variables that do not exist yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print(num:=int(input())) </t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,24 +496,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE6910E-CA6D-4508-9F0E-58146535ADF3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F15BDCB-59CD-4013-B565-61EA9625A827}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,6 +624,30 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Python cheet sheet.xlsx
+++ b/Python cheet sheet.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a955fc45c1aa0037/Documentos/Hacker Rank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8D813B-43F7-4421-9E2E-2638DF9A04CA}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92BB5C84-F38E-884D-8D59-48EE6501DB04}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
     <sheet name="Estructuras de control" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>range</t>
   </si>
@@ -133,13 +133,25 @@
   </si>
   <si>
     <t>Example</t>
+  </si>
+  <si>
+    <t>input()</t>
+  </si>
+  <si>
+    <t>Take user input as string</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>Not equal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +167,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="34"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,12 +202,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,18 +525,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE6910E-CA6D-4508-9F0E-58146535ADF3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.61328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.04296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -521,7 +548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -529,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -537,7 +564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -545,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -553,7 +580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -561,7 +588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -569,7 +596,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -591,18 +626,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F15BDCB-59CD-4013-B565-61EA9625A827}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="91.77734375" customWidth="1"/>
+    <col min="2" max="2" width="91.7421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -618,7 +653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -626,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -634,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -642,12 +677,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -657,14 +700,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E36B2D-EFD9-4A1F-8A9B-1032802AA4B4}">
-  <dimension ref="A1"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Python cheet sheet.xlsx
+++ b/Python cheet sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a955fc45c1aa0037/Documentos/Hacker Rank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92BB5C84-F38E-884D-8D59-48EE6501DB04}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A26F6DC-CB6F-405A-94A7-D6288E132182}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>range</t>
   </si>
@@ -145,6 +145,66 @@
   </si>
   <si>
     <t>Not equal</t>
+  </si>
+  <si>
+    <t>list()</t>
+  </si>
+  <si>
+    <t>Convert a set of numbers in a list</t>
+  </si>
+  <si>
+    <t>list.append(value)</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>exit the code in a loop, can be used in while and for</t>
+  </si>
+  <si>
+    <t>skip the execution in a loop can be used in for and while</t>
+  </si>
+  <si>
+    <t>The pop() method removes the item at the given index from the list and returns the removed item.</t>
+  </si>
+  <si>
+    <t>list.pop(index)</t>
+  </si>
+  <si>
+    <t># create a list of prime numbers
+prime_numbers = [2, 3, 5, 7]
+# remove the element at index 2
+removed_element = prime_numbers.pop(2)
+print('Removed Element:', removed_element)
+print('Updated List:', prime_numbers)
+# Output: 
+# Removed Element: 5
+# Updated List: [2, 3, 7]</t>
+  </si>
+  <si>
+    <t>The append() method adds an item to the end of the list.</t>
+  </si>
+  <si>
+    <t>currencies = ['Dollar', 'Euro', 'Pound']
+# append 'Yen' to the list
+currencies.append('Yen')
+print(currencies)
+# Output: ['Dollar', 'Euro', 'Pound', 'Yen']</t>
+  </si>
+  <si>
+    <t>list.insert(index,value)</t>
+  </si>
+  <si>
+    <t>len(list)</t>
+  </si>
+  <si>
+    <t>Insert in a list index a value</t>
+  </si>
+  <si>
+    <t>retrieve the lengh of a list</t>
   </si>
 </sst>
 </file>
@@ -529,14 +589,14 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.61328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.04296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -548,7 +608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -556,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -564,7 +624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -572,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -580,7 +640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -588,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -596,7 +656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -604,7 +664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -626,18 +686,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F15BDCB-59CD-4013-B565-61EA9625A827}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.7421875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.77734375" customWidth="1"/>
+    <col min="3" max="3" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -653,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -661,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -669,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -677,7 +739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -685,12 +747,58 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -700,16 +808,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E36B2D-EFD9-4A1F-8A9B-1032802AA4B4}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="3"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python cheet sheet.xlsx
+++ b/Python cheet sheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a955fc45c1aa0037/Documentos/Hacker Rank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A26F6DC-CB6F-405A-94A7-D6288E132182}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085FB762-EFA0-4DD2-A504-97AF3270B91C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
     <sheet name="Estructuras de control" sheetId="3" r:id="rId3"/>
+    <sheet name="Exceptions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>range</t>
   </si>
@@ -195,16 +196,84 @@
 # Output: ['Dollar', 'Euro', 'Pound', 'Yen']</t>
   </si>
   <si>
-    <t>list.insert(index,value)</t>
-  </si>
-  <si>
-    <t>len(list)</t>
-  </si>
-  <si>
-    <t>Insert in a list index a value</t>
-  </si>
-  <si>
-    <t>retrieve the lengh of a list</t>
+    <t>x=a.replace("×","y")</t>
+  </si>
+  <si>
+    <t>se necesita crear una variable para guardar los cambios hechos</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>comments in 1line</t>
+  </si>
+  <si>
+    <t>you can add functions as arguments in anothrr function</t>
+  </si>
+  <si>
+    <t>def add(x, y):
+    return x + y
+def do_twice(func, x, y):
+    return func(func(x, y), func(x, y))
+a = 5
+b = 10
+print(do_twice(add, a, b))</t>
+  </si>
+  <si>
+    <t>generate a random integwr between 1 and 6</t>
+  </si>
+  <si>
+    <t>random.randint(1,6)</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>python module to import we have to use import</t>
+  </si>
+  <si>
+    <t>python module to import it we have to use import. or we can request a unique function from math import pi o from math import pi, sqrt</t>
+  </si>
+  <si>
+    <t>Different exceptions are raised for different reasons. 
+Common exceptions:
+ImportError: an import fails;
+IndexError: a list is indexed with an out-of-range number;
+NameError: an unknown variable is used;
+SyntaxError: the code can't be parsed properly; 
+TypeError: a function is called on a value of an inappropriate type;
+ValueError: a function is called on a value of the correct type, but with an inappropriate value.</t>
+  </si>
+  <si>
+    <t>type()</t>
+  </si>
+  <si>
+    <t>return type of data</t>
+  </si>
+  <si>
+    <t>Recall int() function, that occurs an error when the argument is not a number.</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>To ensure some code runs no matter what errors occur, you can use a finally statement. The finally statement is placed at the bottom of a try/except statement. Code within a finally statement always runs after execution of the code in the try, and possibly in the except, blocks.</t>
+  </si>
+  <si>
+    <t>coffee = ["Café Latte", "Caffe Americano", "Espresso", "Cappuccino", "Macchiato"]
+choice = int(input())
+try:
+	#your code goes here
+    print(coffee[choice])
+except:
+	#and here
+    print("Invalid number")
+finally:
+	#and finally here
+    print("Have a good day")</t>
   </si>
 </sst>
 </file>
@@ -686,20 +755,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F15BDCB-59CD-4013-B565-61EA9625A827}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="75.88671875" customWidth="1"/>
     <col min="3" max="3" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,15 +859,55 @@
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +920,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,4 +947,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25972CB-1E43-064D-8FED-1AB7EFD92163}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="306.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python cheet sheet.xlsx
+++ b/Python cheet sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a955fc45c1aa0037/Documentos/Hacker Rank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085FB762-EFA0-4DD2-A504-97AF3270B91C}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{A6DB17BF-B560-47FF-B265-6F0D11B51429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDC8F65D-1BB1-4880-8453-56C8AB247077}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE74CF26-60C0-4E25-B80B-4BF3E894889E}"/>
   </bookViews>
   <sheets>
     <sheet name="Operators" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>range</t>
   </si>
@@ -274,6 +274,16 @@
 finally:
 	#and finally here
     print("Have a good day")</t>
+  </si>
+  <si>
+    <t>print("Welcome to" , end = ' ') 
+print("GeeksforGeeks", end = ' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># ends the output with a &lt;space&gt; </t>
+  </si>
+  <si>
+    <t>Welcome to GeeksforGeeks</t>
   </si>
 </sst>
 </file>
@@ -755,15 +765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F15BDCB-59CD-4013-B565-61EA9625A827}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
     <col min="2" max="2" width="75.88671875" customWidth="1"/>
     <col min="3" max="3" width="60.77734375" customWidth="1"/>
   </cols>
@@ -902,12 +912,23 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -953,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25972CB-1E43-064D-8FED-1AB7EFD92163}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
